--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lpl-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lpl-Vldlr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>109.3723396666667</v>
+        <v>49.96455633333333</v>
       </c>
       <c r="H2">
-        <v>328.117019</v>
+        <v>149.893669</v>
       </c>
       <c r="I2">
-        <v>0.3006244632995563</v>
+        <v>0.1551859508057627</v>
       </c>
       <c r="J2">
-        <v>0.3006244632995563</v>
+        <v>0.1551859508057627</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.463191</v>
+        <v>0.5001966666666666</v>
       </c>
       <c r="N2">
-        <v>1.389573</v>
+        <v>1.50059</v>
       </c>
       <c r="O2">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="P2">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="Q2">
-        <v>50.660283382543</v>
+        <v>24.99210452941222</v>
       </c>
       <c r="R2">
-        <v>455.942550442887</v>
+        <v>224.9289407647099</v>
       </c>
       <c r="S2">
-        <v>0.01062155735956292</v>
+        <v>0.006042984322361947</v>
       </c>
       <c r="T2">
-        <v>0.01062155735956292</v>
+        <v>0.006042984322361947</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>109.3723396666667</v>
+        <v>49.96455633333333</v>
       </c>
       <c r="H3">
-        <v>328.117019</v>
+        <v>149.893669</v>
       </c>
       <c r="I3">
-        <v>0.3006244632995563</v>
+        <v>0.1551859508057627</v>
       </c>
       <c r="J3">
-        <v>0.3006244632995563</v>
+        <v>0.1551859508057627</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>29.798788</v>
       </c>
       <c r="O3">
-        <v>0.7576717833204485</v>
+        <v>0.7732779360092192</v>
       </c>
       <c r="P3">
-        <v>0.7576717833204486</v>
+        <v>0.7732779360092191</v>
       </c>
       <c r="Q3">
-        <v>1086.38772093033</v>
+        <v>496.2944072303523</v>
       </c>
       <c r="R3">
-        <v>9777.489488372972</v>
+        <v>4466.649665073171</v>
       </c>
       <c r="S3">
-        <v>0.2277746732179276</v>
+        <v>0.1200018717367084</v>
       </c>
       <c r="T3">
-        <v>0.2277746732179276</v>
+        <v>0.1200018717367084</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>109.3723396666667</v>
+        <v>49.96455633333333</v>
       </c>
       <c r="H4">
-        <v>328.117019</v>
+        <v>149.893669</v>
       </c>
       <c r="I4">
-        <v>0.3006244632995563</v>
+        <v>0.1551859508057627</v>
       </c>
       <c r="J4">
-        <v>0.3006244632995563</v>
+        <v>0.1551859508057627</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.585130333333333</v>
+        <v>2.334238666666666</v>
       </c>
       <c r="N4">
-        <v>7.755390999999999</v>
+        <v>7.002715999999999</v>
       </c>
       <c r="O4">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411497</v>
       </c>
       <c r="P4">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411496</v>
       </c>
       <c r="Q4">
-        <v>282.7417528999366</v>
+        <v>116.6291993561115</v>
       </c>
       <c r="R4">
-        <v>2544.675776099429</v>
+        <v>1049.662794205004</v>
       </c>
       <c r="S4">
-        <v>0.05928031873988487</v>
+        <v>0.02820044316032571</v>
       </c>
       <c r="T4">
-        <v>0.05928031873988487</v>
+        <v>0.02820044316032571</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>109.3723396666667</v>
+        <v>49.96455633333333</v>
       </c>
       <c r="H5">
-        <v>328.117019</v>
+        <v>149.893669</v>
       </c>
       <c r="I5">
-        <v>0.3006244632995563</v>
+        <v>0.1551859508057627</v>
       </c>
       <c r="J5">
-        <v>0.3006244632995563</v>
+        <v>0.1551859508057627</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1285543333333333</v>
+        <v>0.07786066666666666</v>
       </c>
       <c r="N5">
-        <v>0.385663</v>
+        <v>0.233582</v>
       </c>
       <c r="O5">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120818</v>
       </c>
       <c r="P5">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120817</v>
       </c>
       <c r="Q5">
-        <v>14.06028821095522</v>
+        <v>3.890273665817555</v>
       </c>
       <c r="R5">
-        <v>126.542593898597</v>
+        <v>35.012462992358</v>
       </c>
       <c r="S5">
-        <v>0.00294791398218094</v>
+        <v>0.0009406515863666612</v>
       </c>
       <c r="T5">
-        <v>0.00294791398218094</v>
+        <v>0.0009406515863666611</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>512.2533120000001</v>
       </c>
       <c r="I6">
-        <v>0.4693321835689973</v>
+        <v>0.5303393919600503</v>
       </c>
       <c r="J6">
-        <v>0.4693321835689973</v>
+        <v>0.5303393919600503</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.463191</v>
+        <v>0.5001966666666666</v>
       </c>
       <c r="N6">
-        <v>1.389573</v>
+        <v>1.50059</v>
       </c>
       <c r="O6">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="P6">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="Q6">
-        <v>79.09037461286401</v>
+        <v>85.40913305045333</v>
       </c>
       <c r="R6">
-        <v>711.813371515776</v>
+        <v>768.68219745408</v>
       </c>
       <c r="S6">
-        <v>0.0165822789461405</v>
+        <v>0.02065156423313638</v>
       </c>
       <c r="T6">
-        <v>0.0165822789461405</v>
+        <v>0.02065156423313638</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>512.2533120000001</v>
       </c>
       <c r="I7">
-        <v>0.4693321835689973</v>
+        <v>0.5303393919600503</v>
       </c>
       <c r="J7">
-        <v>0.4693321835689973</v>
+        <v>0.5303393919600503</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>29.798788</v>
       </c>
       <c r="O7">
-        <v>0.7576717833204485</v>
+        <v>0.7732779360092192</v>
       </c>
       <c r="P7">
-        <v>0.7576717833204486</v>
+        <v>0.7732779360092191</v>
       </c>
       <c r="Q7">
         <v>1696.058649620651</v>
@@ -883,10 +883,10 @@
         <v>15264.52784658586</v>
       </c>
       <c r="S7">
-        <v>0.3555997524944023</v>
+        <v>0.410099750399252</v>
       </c>
       <c r="T7">
-        <v>0.3555997524944023</v>
+        <v>0.4100997503992519</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>512.2533120000001</v>
       </c>
       <c r="I8">
-        <v>0.4693321835689973</v>
+        <v>0.5303393919600503</v>
       </c>
       <c r="J8">
-        <v>0.4693321835689973</v>
+        <v>0.5303393919600503</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.585130333333333</v>
+        <v>2.334238666666666</v>
       </c>
       <c r="N8">
-        <v>7.755390999999999</v>
+        <v>7.002715999999999</v>
       </c>
       <c r="O8">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411497</v>
       </c>
       <c r="P8">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411496</v>
       </c>
       <c r="Q8">
-        <v>441.4138584005547</v>
+        <v>398.5738293328213</v>
       </c>
       <c r="R8">
-        <v>3972.724725604992</v>
+        <v>3587.164463995392</v>
       </c>
       <c r="S8">
-        <v>0.09254789557539438</v>
+        <v>0.0963734526289072</v>
       </c>
       <c r="T8">
-        <v>0.09254789557539438</v>
+        <v>0.09637345262890719</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>512.2533120000001</v>
       </c>
       <c r="I9">
-        <v>0.4693321835689973</v>
+        <v>0.5303393919600503</v>
       </c>
       <c r="J9">
-        <v>0.4693321835689973</v>
+        <v>0.5303393919600503</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1285543333333333</v>
+        <v>0.07786066666666666</v>
       </c>
       <c r="N9">
-        <v>0.385663</v>
+        <v>0.233582</v>
       </c>
       <c r="O9">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120818</v>
       </c>
       <c r="P9">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120817</v>
       </c>
       <c r="Q9">
-        <v>21.95079434065067</v>
+        <v>13.29479479150933</v>
       </c>
       <c r="R9">
-        <v>197.557149065856</v>
+        <v>119.653153123584</v>
       </c>
       <c r="S9">
-        <v>0.0046022565530601</v>
+        <v>0.003214624698754798</v>
       </c>
       <c r="T9">
-        <v>0.0046022565530601</v>
+        <v>0.003214624698754797</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.72510066666666</v>
+        <v>13.36927633333333</v>
       </c>
       <c r="H10">
-        <v>44.17530199999999</v>
+        <v>40.107829</v>
       </c>
       <c r="I10">
-        <v>0.04047390316820419</v>
+        <v>0.04152391238164931</v>
       </c>
       <c r="J10">
-        <v>0.04047390316820419</v>
+        <v>0.04152391238164931</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.463191</v>
+        <v>0.5001966666666666</v>
       </c>
       <c r="N10">
-        <v>1.389573</v>
+        <v>1.50059</v>
       </c>
       <c r="O10">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="P10">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="Q10">
-        <v>6.820534102893999</v>
+        <v>6.687267457678887</v>
       </c>
       <c r="R10">
-        <v>61.38480692604599</v>
+        <v>60.18540711910999</v>
       </c>
       <c r="S10">
-        <v>0.001430009651736518</v>
+        <v>0.001616952760366242</v>
       </c>
       <c r="T10">
-        <v>0.001430009651736518</v>
+        <v>0.001616952760366242</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.72510066666666</v>
+        <v>13.36927633333333</v>
       </c>
       <c r="H11">
-        <v>44.17530199999999</v>
+        <v>40.107829</v>
       </c>
       <c r="I11">
-        <v>0.04047390316820419</v>
+        <v>0.04152391238164931</v>
       </c>
       <c r="J11">
-        <v>0.04047390316820419</v>
+        <v>0.04152391238164931</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>29.798788</v>
       </c>
       <c r="O11">
-        <v>0.7576717833204485</v>
+        <v>0.7732779360092192</v>
       </c>
       <c r="P11">
-        <v>0.7576717833204486</v>
+        <v>0.7732779360092191</v>
       </c>
       <c r="Q11">
-        <v>146.2633843482195</v>
+        <v>132.7960770568058</v>
       </c>
       <c r="R11">
-        <v>1316.370459133976</v>
+        <v>1195.164693511252</v>
       </c>
       <c r="S11">
-        <v>0.03066593439139241</v>
+        <v>0.03210952526150944</v>
       </c>
       <c r="T11">
-        <v>0.03066593439139242</v>
+        <v>0.03210952526150943</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.72510066666666</v>
+        <v>13.36927633333333</v>
       </c>
       <c r="H12">
-        <v>44.17530199999999</v>
+        <v>40.107829</v>
       </c>
       <c r="I12">
-        <v>0.04047390316820419</v>
+        <v>0.04152391238164931</v>
       </c>
       <c r="J12">
-        <v>0.04047390316820419</v>
+        <v>0.04152391238164931</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.585130333333333</v>
+        <v>2.334238666666666</v>
       </c>
       <c r="N12">
-        <v>7.755390999999999</v>
+        <v>7.002715999999999</v>
       </c>
       <c r="O12">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411497</v>
       </c>
       <c r="P12">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411496</v>
       </c>
       <c r="Q12">
-        <v>38.06630439478688</v>
+        <v>31.20708176261821</v>
       </c>
       <c r="R12">
-        <v>342.5967395530819</v>
+        <v>280.8637358635639</v>
       </c>
       <c r="S12">
-        <v>0.007981073310283466</v>
+        <v>0.007545739320041349</v>
       </c>
       <c r="T12">
-        <v>0.007981073310283467</v>
+        <v>0.007545739320041349</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.72510066666666</v>
+        <v>13.36927633333333</v>
       </c>
       <c r="H13">
-        <v>44.17530199999999</v>
+        <v>40.107829</v>
       </c>
       <c r="I13">
-        <v>0.04047390316820419</v>
+        <v>0.04152391238164931</v>
       </c>
       <c r="J13">
-        <v>0.04047390316820419</v>
+        <v>0.04152391238164931</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1285543333333333</v>
+        <v>0.07786066666666666</v>
       </c>
       <c r="N13">
-        <v>0.385663</v>
+        <v>0.233582</v>
       </c>
       <c r="O13">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120818</v>
       </c>
       <c r="P13">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120817</v>
       </c>
       <c r="Q13">
-        <v>1.892975499469555</v>
+        <v>1.040940768164222</v>
       </c>
       <c r="R13">
-        <v>17.036779495226</v>
+        <v>9.368466913477999</v>
       </c>
       <c r="S13">
-        <v>0.0003968858147917819</v>
+        <v>0.0002516950397322837</v>
       </c>
       <c r="T13">
-        <v>0.000396885814791782</v>
+        <v>0.0002516950397322836</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>68.96861966666665</v>
+        <v>87.88078300000001</v>
       </c>
       <c r="H14">
-        <v>206.905859</v>
+        <v>263.642349</v>
       </c>
       <c r="I14">
-        <v>0.1895694499632421</v>
+        <v>0.2729507448525377</v>
       </c>
       <c r="J14">
-        <v>0.1895694499632421</v>
+        <v>0.2729507448525377</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.463191</v>
+        <v>0.5001966666666666</v>
       </c>
       <c r="N14">
-        <v>1.389573</v>
+        <v>1.50059</v>
       </c>
       <c r="O14">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="P14">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="Q14">
-        <v>31.94564391202299</v>
+        <v>43.95767472065667</v>
       </c>
       <c r="R14">
-        <v>287.510795208207</v>
+        <v>395.61907248591</v>
       </c>
       <c r="S14">
-        <v>0.006697800851951961</v>
+        <v>0.0106287783356459</v>
       </c>
       <c r="T14">
-        <v>0.006697800851951961</v>
+        <v>0.0106287783356459</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>68.96861966666665</v>
+        <v>87.88078300000001</v>
       </c>
       <c r="H15">
-        <v>206.905859</v>
+        <v>263.642349</v>
       </c>
       <c r="I15">
-        <v>0.1895694499632421</v>
+        <v>0.2729507448525377</v>
       </c>
       <c r="J15">
-        <v>0.1895694499632421</v>
+        <v>0.2729507448525377</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>29.798788</v>
       </c>
       <c r="O15">
-        <v>0.7576717833204485</v>
+        <v>0.7732779360092192</v>
       </c>
       <c r="P15">
-        <v>0.7576717833204486</v>
+        <v>0.7732779360092191</v>
       </c>
       <c r="Q15">
-        <v>685.0604253665433</v>
+        <v>872.9136072970014</v>
       </c>
       <c r="R15">
-        <v>6165.543828298891</v>
+        <v>7856.222465673012</v>
       </c>
       <c r="S15">
-        <v>0.1436314232167262</v>
+        <v>0.2110667886117494</v>
       </c>
       <c r="T15">
-        <v>0.1436314232167262</v>
+        <v>0.2110667886117493</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>68.96861966666665</v>
+        <v>87.88078300000001</v>
       </c>
       <c r="H16">
-        <v>206.905859</v>
+        <v>263.642349</v>
       </c>
       <c r="I16">
-        <v>0.1895694499632421</v>
+        <v>0.2729507448525377</v>
       </c>
       <c r="J16">
-        <v>0.1895694499632421</v>
+        <v>0.2729507448525377</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.585130333333333</v>
+        <v>2.334238666666666</v>
       </c>
       <c r="N16">
-        <v>7.755390999999999</v>
+        <v>7.002715999999999</v>
       </c>
       <c r="O16">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411497</v>
       </c>
       <c r="P16">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411496</v>
       </c>
       <c r="Q16">
-        <v>178.2928707484299</v>
+        <v>205.1347217355427</v>
       </c>
       <c r="R16">
-        <v>1604.635836735869</v>
+        <v>1846.212495619884</v>
       </c>
       <c r="S16">
-        <v>0.03738131386189899</v>
+        <v>0.0496007011318754</v>
       </c>
       <c r="T16">
-        <v>0.03738131386189899</v>
+        <v>0.04960070113187539</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>68.96861966666665</v>
+        <v>87.88078300000001</v>
       </c>
       <c r="H17">
-        <v>206.905859</v>
+        <v>263.642349</v>
       </c>
       <c r="I17">
-        <v>0.1895694499632421</v>
+        <v>0.2729507448525377</v>
       </c>
       <c r="J17">
-        <v>0.1895694499632421</v>
+        <v>0.2729507448525377</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1285543333333333</v>
+        <v>0.07786066666666666</v>
       </c>
       <c r="N17">
-        <v>0.385663</v>
+        <v>0.233582</v>
       </c>
       <c r="O17">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120818</v>
       </c>
       <c r="P17">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120817</v>
       </c>
       <c r="Q17">
-        <v>8.866214922168554</v>
+        <v>6.842456351568667</v>
       </c>
       <c r="R17">
-        <v>79.79593429951699</v>
+        <v>61.582107164118</v>
       </c>
       <c r="S17">
-        <v>0.001858912032664962</v>
+        <v>0.001654476773267075</v>
       </c>
       <c r="T17">
-        <v>0.001858912032664962</v>
+        <v>0.001654476773267075</v>
       </c>
     </row>
   </sheetData>
